--- a/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Lrpap1-Lrp1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H2">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I2">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J2">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N2">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O2">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P2">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q2">
-        <v>24.49758859130787</v>
+        <v>31.03472886366222</v>
       </c>
       <c r="R2">
-        <v>24.49758859130787</v>
+        <v>279.31255977296</v>
       </c>
       <c r="S2">
-        <v>0.0009186333616264998</v>
+        <v>0.001064205728535732</v>
       </c>
       <c r="T2">
-        <v>0.0009186333616264998</v>
+        <v>0.001145061589413277</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H3">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I3">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J3">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N3">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P3">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q3">
-        <v>1276.488820049135</v>
+        <v>1461.062357435091</v>
       </c>
       <c r="R3">
-        <v>1276.488820049135</v>
+        <v>13149.56121691582</v>
       </c>
       <c r="S3">
-        <v>0.04786696500636177</v>
+        <v>0.05010099934692532</v>
       </c>
       <c r="T3">
-        <v>0.04786696500636177</v>
+        <v>0.05390755603460148</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H4">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I4">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J4">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N4">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O4">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P4">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q4">
-        <v>842.8424320621463</v>
+        <v>922.7001277708245</v>
       </c>
       <c r="R4">
-        <v>842.8424320621463</v>
+        <v>8304.301149937419</v>
       </c>
       <c r="S4">
-        <v>0.03160568942534308</v>
+        <v>0.03164012696898717</v>
       </c>
       <c r="T4">
-        <v>0.03160568942534308</v>
+        <v>0.03404406977417419</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H5">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I5">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J5">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N5">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O5">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P5">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q5">
-        <v>989.3056512413145</v>
+        <v>1099.037275395198</v>
       </c>
       <c r="R5">
-        <v>989.3056512413145</v>
+        <v>9891.335478556779</v>
       </c>
       <c r="S5">
-        <v>0.03709790344011094</v>
+        <v>0.03768686910357801</v>
       </c>
       <c r="T5">
-        <v>0.03709790344011094</v>
+        <v>0.04055022922600648</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.29289753722995</v>
+        <v>7.863513333333333</v>
       </c>
       <c r="H6">
-        <v>7.29289753722995</v>
+        <v>23.59054</v>
       </c>
       <c r="I6">
-        <v>0.1287044420548183</v>
+        <v>0.1316713470554304</v>
       </c>
       <c r="J6">
-        <v>0.1287044420548183</v>
+        <v>0.1376659241260802</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N6">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O6">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P6">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q6">
-        <v>299.0818884303761</v>
+        <v>326.0100494299866</v>
       </c>
       <c r="R6">
-        <v>299.0818884303761</v>
+        <v>1956.06029657992</v>
       </c>
       <c r="S6">
-        <v>0.01121525082137605</v>
+        <v>0.01117914590740422</v>
       </c>
       <c r="T6">
-        <v>0.01121525082137605</v>
+        <v>0.008019007501884789</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H7">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I7">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J7">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N7">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O7">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P7">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q7">
-        <v>45.91234945584638</v>
+        <v>59.71231022933245</v>
       </c>
       <c r="R7">
-        <v>45.91234945584638</v>
+        <v>537.4107920639919</v>
       </c>
       <c r="S7">
-        <v>0.001721663981889209</v>
+        <v>0.002047582980000286</v>
       </c>
       <c r="T7">
-        <v>0.001721663981889209</v>
+        <v>0.002203153543216413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H8">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I8">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J8">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N8">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P8">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q8">
-        <v>2392.341620243041</v>
+        <v>2811.154211619843</v>
       </c>
       <c r="R8">
-        <v>2392.341620243041</v>
+        <v>25300.38790457859</v>
       </c>
       <c r="S8">
-        <v>0.08971025113641698</v>
+        <v>0.09639673118929774</v>
       </c>
       <c r="T8">
-        <v>0.08971025113641698</v>
+        <v>0.1037207292444635</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H9">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I9">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J9">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N9">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O9">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P9">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q9">
-        <v>1579.619811673341</v>
+        <v>1775.31940169799</v>
       </c>
       <c r="R9">
-        <v>1579.619811673341</v>
+        <v>15977.87461528191</v>
       </c>
       <c r="S9">
-        <v>0.05923405286527551</v>
+        <v>0.06087712528656145</v>
       </c>
       <c r="T9">
-        <v>0.05923405286527551</v>
+        <v>0.06550242680562747</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H10">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I10">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J10">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N10">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O10">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P10">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q10">
-        <v>1854.11501255071</v>
+        <v>2114.600550573465</v>
       </c>
       <c r="R10">
-        <v>1854.11501255071</v>
+        <v>19031.40495516118</v>
       </c>
       <c r="S10">
-        <v>0.06952732920929042</v>
+        <v>0.07251134783136434</v>
       </c>
       <c r="T10">
-        <v>0.06952732920929042</v>
+        <v>0.07802059035382576</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>13.6680416126258</v>
+        <v>15.12977766666667</v>
       </c>
       <c r="H11">
-        <v>13.6680416126258</v>
+        <v>45.389333</v>
       </c>
       <c r="I11">
-        <v>0.2412124482422406</v>
+        <v>0.2533420014148681</v>
       </c>
       <c r="J11">
-        <v>0.2412124482422406</v>
+        <v>0.2648758558689792</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N11">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O11">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P11">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q11">
-        <v>560.5266872022686</v>
+        <v>627.2590069970473</v>
       </c>
       <c r="R11">
-        <v>560.5266872022686</v>
+        <v>3763.554041982284</v>
       </c>
       <c r="S11">
-        <v>0.02101915104936846</v>
+        <v>0.02150921412764427</v>
       </c>
       <c r="T11">
-        <v>0.02101915104936846</v>
+        <v>0.01542895592184608</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H12">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I12">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J12">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N12">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O12">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P12">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q12">
-        <v>45.84567802212266</v>
+        <v>56.76250112111289</v>
       </c>
       <c r="R12">
-        <v>45.84567802212266</v>
+        <v>510.862510090016</v>
       </c>
       <c r="S12">
-        <v>0.001719163874457908</v>
+        <v>0.001946431661268137</v>
       </c>
       <c r="T12">
-        <v>0.001719163874457908</v>
+        <v>0.002094316983993931</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H13">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I13">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J13">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N13">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P13">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q13">
-        <v>2388.867590974904</v>
+        <v>2672.282205726952</v>
       </c>
       <c r="R13">
-        <v>2388.867590974904</v>
+        <v>24050.53985154257</v>
       </c>
       <c r="S13">
-        <v>0.08957997875580766</v>
+        <v>0.09163469879475976</v>
       </c>
       <c r="T13">
-        <v>0.08957997875580766</v>
+        <v>0.09859688877234929</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H14">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I14">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J14">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N14">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O14">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P14">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q14">
-        <v>1577.325973112892</v>
+        <v>1687.617999407326</v>
       </c>
       <c r="R14">
-        <v>1577.325973112892</v>
+        <v>15188.56199466593</v>
       </c>
       <c r="S14">
-        <v>0.0591480363734906</v>
+        <v>0.05786977390519906</v>
       </c>
       <c r="T14">
-        <v>0.0591480363734906</v>
+        <v>0.06226658390389345</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H15">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I15">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J15">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N15">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O15">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P15">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q15">
-        <v>1851.422566887604</v>
+        <v>2010.138540305043</v>
       </c>
       <c r="R15">
-        <v>1851.422566887604</v>
+        <v>18091.24686274539</v>
       </c>
       <c r="S15">
-        <v>0.069426365377635</v>
+        <v>0.06892926176802587</v>
       </c>
       <c r="T15">
-        <v>0.069426365377635</v>
+        <v>0.07416634577393127</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.6481936209349</v>
+        <v>14.38236133333333</v>
       </c>
       <c r="H16">
-        <v>13.6481936209349</v>
+        <v>43.147084</v>
       </c>
       <c r="I16">
-        <v>0.2408621725550469</v>
+        <v>0.2408268175206591</v>
       </c>
       <c r="J16">
-        <v>0.2408621725550469</v>
+        <v>0.2517908955117437</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N16">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O16">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P16">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q16">
-        <v>559.7127206264104</v>
+        <v>596.2721916327387</v>
       </c>
       <c r="R16">
-        <v>559.7127206264104</v>
+        <v>3577.633149796432</v>
       </c>
       <c r="S16">
-        <v>0.0209886281736558</v>
+        <v>0.0204466513914063</v>
       </c>
       <c r="T16">
-        <v>0.0209886281736558</v>
+        <v>0.01466676007757572</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H17">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I17">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J17">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N17">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O17">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P17">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q17">
-        <v>47.97668314213278</v>
+        <v>57.39885899769155</v>
       </c>
       <c r="R17">
-        <v>47.97668314213278</v>
+        <v>516.589730979224</v>
       </c>
       <c r="S17">
-        <v>0.001799074286445674</v>
+        <v>0.001968252882926908</v>
       </c>
       <c r="T17">
-        <v>0.001799074286445674</v>
+        <v>0.002117796131009905</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H18">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I18">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J18">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N18">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P18">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q18">
-        <v>2499.907263350068</v>
+        <v>2702.240854420515</v>
       </c>
       <c r="R18">
-        <v>2499.907263350068</v>
+        <v>24320.16768978463</v>
       </c>
       <c r="S18">
-        <v>0.09374384766591316</v>
+        <v>0.09266200487173369</v>
       </c>
       <c r="T18">
-        <v>0.09374384766591316</v>
+        <v>0.09970224716102498</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H19">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I19">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J19">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N19">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O19">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P19">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q19">
-        <v>1650.643456235435</v>
+        <v>1706.537690847408</v>
       </c>
       <c r="R19">
-        <v>1650.643456235435</v>
+        <v>15358.83921762667</v>
       </c>
       <c r="S19">
-        <v>0.06189736354648237</v>
+        <v>0.05851854528970563</v>
       </c>
       <c r="T19">
-        <v>0.06189736354648237</v>
+        <v>0.06296464741998738</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H20">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I20">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J20">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N20">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O20">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P20">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q20">
-        <v>1937.480645632473</v>
+        <v>2032.673972463117</v>
       </c>
       <c r="R20">
-        <v>1937.480645632473</v>
+        <v>18294.06575216806</v>
       </c>
       <c r="S20">
-        <v>0.07265345125500042</v>
+        <v>0.06970201979993931</v>
       </c>
       <c r="T20">
-        <v>0.07265345125500042</v>
+        <v>0.07499781615275755</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>14.2825908365474</v>
+        <v>14.54360033333333</v>
       </c>
       <c r="H21">
-        <v>14.2825908365474</v>
+        <v>43.630801</v>
       </c>
       <c r="I21">
-        <v>0.2520579612329652</v>
+        <v>0.243526699294608</v>
       </c>
       <c r="J21">
-        <v>0.2520579612329652</v>
+        <v>0.2546136943039924</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N21">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O21">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P21">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q21">
-        <v>585.7293643940981</v>
+        <v>602.9569306459246</v>
       </c>
       <c r="R21">
-        <v>585.7293643940981</v>
+        <v>3617.741583875548</v>
       </c>
       <c r="S21">
-        <v>0.02196422447912361</v>
+        <v>0.02067587645030244</v>
       </c>
       <c r="T21">
-        <v>0.02196422447912361</v>
+        <v>0.0148311874392126</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H22">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I22">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J22">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.35910225890994</v>
+        <v>3.946674666666667</v>
       </c>
       <c r="N22">
-        <v>3.35910225890994</v>
+        <v>11.840024</v>
       </c>
       <c r="O22">
-        <v>0.007137542006788171</v>
+        <v>0.008082287850277156</v>
       </c>
       <c r="P22">
-        <v>0.007137542006788171</v>
+        <v>0.008317683527585098</v>
       </c>
       <c r="Q22">
-        <v>26.10758494638612</v>
+        <v>30.790023852084</v>
       </c>
       <c r="R22">
-        <v>26.10758494638612</v>
+        <v>184.740143112504</v>
       </c>
       <c r="S22">
-        <v>0.0009790065023688797</v>
+        <v>0.001055814597546092</v>
       </c>
       <c r="T22">
-        <v>0.0009790065023688797</v>
+        <v>0.0007573552799515714</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H23">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I23">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J23">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>175.031777634707</v>
+        <v>185.8027443333333</v>
       </c>
       <c r="N23">
-        <v>175.031777634707</v>
+        <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3719138534936819</v>
+        <v>0.3805003933455167</v>
       </c>
       <c r="P23">
-        <v>0.3719138534936819</v>
+        <v>0.3915824222792467</v>
       </c>
       <c r="Q23">
-        <v>1360.380438194214</v>
+        <v>1449.542060845316</v>
       </c>
       <c r="R23">
-        <v>1360.380438194214</v>
+        <v>8697.252365071892</v>
       </c>
       <c r="S23">
-        <v>0.05101281092918232</v>
+        <v>0.04970595914280018</v>
       </c>
       <c r="T23">
-        <v>0.05101281092918232</v>
+        <v>0.03565500106680744</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H24">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I24">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J24">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.570310395761</v>
+        <v>117.3394243333333</v>
       </c>
       <c r="N24">
-        <v>115.570310395761</v>
+        <v>352.018273</v>
       </c>
       <c r="O24">
-        <v>0.2455679766816553</v>
+        <v>0.2402962199184265</v>
       </c>
       <c r="P24">
-        <v>0.2455679766816553</v>
+        <v>0.2472948188906589</v>
       </c>
       <c r="Q24">
-        <v>898.2345470234868</v>
+        <v>915.4247510004556</v>
       </c>
       <c r="R24">
-        <v>898.2345470234868</v>
+        <v>5492.548506002733</v>
       </c>
       <c r="S24">
-        <v>0.03368283447106372</v>
+        <v>0.03139064846797317</v>
       </c>
       <c r="T24">
-        <v>0.03368283447106372</v>
+        <v>0.02251709098697635</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H25">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I25">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J25">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>135.653304628366</v>
+        <v>139.7641523333333</v>
       </c>
       <c r="N25">
-        <v>135.653304628366</v>
+        <v>419.292457</v>
       </c>
       <c r="O25">
-        <v>0.2882410493983575</v>
+        <v>0.2862192112890951</v>
       </c>
       <c r="P25">
-        <v>0.2882410493983575</v>
+        <v>0.2945553119511906</v>
       </c>
       <c r="Q25">
-        <v>1054.323417648004</v>
+        <v>1090.371501952099</v>
       </c>
       <c r="R25">
-        <v>1054.323417648004</v>
+        <v>6542.229011712598</v>
       </c>
       <c r="S25">
-        <v>0.03953600011632077</v>
+        <v>0.03738971278618753</v>
       </c>
       <c r="T25">
-        <v>0.03953600011632077</v>
+        <v>0.02682033044466947</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.77219117909744</v>
+        <v>7.8015105</v>
       </c>
       <c r="H26">
-        <v>7.77219117909744</v>
+        <v>15.603021</v>
       </c>
       <c r="I26">
-        <v>0.137162975914929</v>
+        <v>0.1306331347144344</v>
       </c>
       <c r="J26">
-        <v>0.137162975914929</v>
+        <v>0.0910536301892045</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>41.0100219979199</v>
+        <v>41.458574</v>
       </c>
       <c r="N26">
-        <v>41.0100219979199</v>
+        <v>82.917148</v>
       </c>
       <c r="O26">
-        <v>0.08713957841951724</v>
+        <v>0.0849018875966847</v>
       </c>
       <c r="P26">
-        <v>0.08713957841951724</v>
+        <v>0.05824976335131885</v>
       </c>
       <c r="Q26">
-        <v>318.737731226825</v>
+        <v>323.439500376027</v>
       </c>
       <c r="R26">
-        <v>318.737731226825</v>
+        <v>1293.758001504108</v>
       </c>
       <c r="S26">
-        <v>0.01195232389599331</v>
+        <v>0.01109099971992748</v>
       </c>
       <c r="T26">
-        <v>0.01195232389599331</v>
+        <v>0.005303852410799664</v>
       </c>
     </row>
   </sheetData>
